--- a/regrsi blood pressure.xlsx
+++ b/regrsi blood pressure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\artivicial intelligence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\artivicial intelligence\ai_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Age</t>
   </si>
@@ -49,6 +49,33 @@
   </si>
   <si>
     <t>w0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>w0+(w1*ypred)</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>c/d</t>
+  </si>
+  <si>
+    <t>y-w1*x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new y </t>
+  </si>
+  <si>
+    <t>prediksi</t>
   </si>
 </sst>
 </file>
@@ -391,9 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -403,11 +428,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -436,6 +473,9 @@
         <f>E33/F33</f>
         <v>0.9708703514427236</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -467,6 +507,9 @@
         <f>B33-(H2*A33)</f>
         <v>98.714718138218416</v>
       </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -491,6 +534,12 @@
         <f t="shared" ref="F4:F32" si="3">C4^2</f>
         <v>3.484444444444446</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -516,11 +565,14 @@
         <v>1.7777777777777653E-2</v>
       </c>
       <c r="G5" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H5" s="2">
         <f>H3+(H2*G5)</f>
-        <v>144.34562465602642</v>
+        <v>121.04473622140105</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
